--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/1_Sep13_Sep14.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '13</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '13</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '14</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '14</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '14</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '14</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '14</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '13</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '13</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>16,272.27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18,779.39</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20,938.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18,086.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>16,582.36</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18,086.47</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20,938.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18,779.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>16,272.27</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>20938.08</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>16272.27</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>18131.714</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>143.17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>100.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>250.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>154.27</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>250.28</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>100.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>143.17</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>250.28</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>134.84</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>16,415.44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18,805.12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21,038.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18,336.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>16,736.63</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18,336.75</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21,038.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18,805.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16,415.44</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>21038.83</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>16415.44</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>18266.554</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>10,139.25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11,830.52</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14,434.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12,765.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>11,439.33</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12,765.13</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14,434.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11,830.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10,139.25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>14434.11</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>10139.25</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>12121.668</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>837.95</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,179.65</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>894.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>934.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>918.01</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>934.24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>894.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,179.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>837.95</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1179.65</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>837.95</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>952.9</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>967.94</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,024.28</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,207.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,115.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,151.58</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,115.47</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,207.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,024.28</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>967.94</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1207.64</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>967.9400000000001</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1093.382</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,186.30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,139.14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,167.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,118.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,136.96</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,118.75</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,167.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,139.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,186.30</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1186.3</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1118.75</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1149.734</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,284.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,631.53</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,334.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,403.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,090.75</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,403.16</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,334.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,631.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,284.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3631.53</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2090.75</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2948.87</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>643.97</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>748.95</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>599.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>548.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>530.69</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>548.39</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>599.04</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>748.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>643.97</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>748.95</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>530.6900000000001</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>614.208</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,927.97</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4,380.48</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,933.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,951.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,621.44</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,951.55</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,933.95</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4,380.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,927.97</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4380.48</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2621.44</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3563.078</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>620.46</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>601.03</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>567.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>667.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>667.41</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>667.91</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>567.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>601.03</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>620.46</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>667.91</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>567.6900000000001</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>624.9</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,307.51</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,779.45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,366.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,283.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,954.03</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,283.64</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,366.26</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,779.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,307.51</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3779.45</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1954.03</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2938.178</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,307.51</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,779.45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,366.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,283.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,954.03</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,283.64</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,366.26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,779.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,307.51</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3779.45</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1954.03</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2938.178</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>814.61</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>918.17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>272.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>-117.60</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>82.44</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>272.72</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>918.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>814.61</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>918.17</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-117.6</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>394.068</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,492.90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,861.28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3,093.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,201.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,071.63</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,201.20</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3,093.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,861.28</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,492.90</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3093.54</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2071.63</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2544.11</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,492.90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,861.28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3,093.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,201.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>2,071.63</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,201.20</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3,093.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,861.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,492.90</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3093.54</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2071.63</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2544.11</v>
       </c>
     </row>
     <row r="20">
@@ -1190,15 +1023,6 @@
         <is>
           <t>8,245.46</t>
         </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>8245.459999999999</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>2.51</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>3.086</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>2.51</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>3.086</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>2.51</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>3.086</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>2.51</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>3.086</v>
       </c>
     </row>
     <row r="29"/>
@@ -1397,37 +1185,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>206.14</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>206.14</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>206.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>206.48</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>206.48</t>
         </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>206.14</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>206.14</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>206.14</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>206.48</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>206.14</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>206.276</v>
       </c>
     </row>
     <row r="32">
@@ -1438,37 +1217,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>25.04</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>25.04</t>
         </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>25.016</v>
       </c>
     </row>
     <row r="33"/>
@@ -1503,37 +1273,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>618.41</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>618.41</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>618.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>618.06</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>618.06</t>
         </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>618.41</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>618.41</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>618.41</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>618.41</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>618.0599999999999</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>618.27</v>
       </c>
     </row>
     <row r="40">
@@ -1567,15 +1328,6 @@
           <t>100.00</t>
         </is>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1585,37 +1337,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>74.96</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>74.96</t>
         </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>74.98399999999999</v>
       </c>
     </row>
   </sheetData>
